--- a/biology/Botanique/Viscum/Viscum.xlsx
+++ b/biology/Botanique/Viscum/Viscum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Viscum était un genre autrefois classé dans la famille des Loranthaceae et la sous-famille  des Viscodeae (considérée par certains auteurs comme étant une famille, celle des Viscacées, famille de plantes hémiparasites et chlorophylliennes). La classification phylogénétique APGIII le classe maintenant dans les Santalacées[1]. Il regroupe quelque 70 espèces d'arbrisseaux hémiparasites, dont la plus connue est le gui (Viscum album).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Viscum était un genre autrefois classé dans la famille des Loranthaceae et la sous-famille  des Viscodeae (considérée par certains auteurs comme étant une famille, celle des Viscacées, famille de plantes hémiparasites et chlorophylliennes). La classification phylogénétique APGIII le classe maintenant dans les Santalacées. Il regroupe quelque 70 espèces d'arbrisseaux hémiparasites, dont la plus connue est le gui (Viscum album).
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du latin viscus, « glu », en référence à la glu visqueuse retirée des fruits et de l'écorce des tiges de ces espèces[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du latin viscus, « glu », en référence à la glu visqueuse retirée des fruits et de l'écorce des tiges de ces espèces.
 Selon Théis : 
-« Viscum (gui , en gaulois dont le primitif est gwid, arbuste. C'est-à-dire l'arbuste par excellence. On sait que le gui-de-chêne était en vénération parmi les Celtes. De gui les Grecs ont fait  ἰξός / ixós, et les Latins, viscum [...]. Comme le suc de cette plante est extrêmement gluant, d'ixos les Grecs firent ιξία / ixia, de la glu, et de viscum les Latins firent viscus, viscatus ; les Français visqueux viscosité etc.Quant aux motifs qui avaient dirigé vers le gui-de-chêne le culte de nos ancêtres, on ne saurait les découvrir. La superstition ne peut être expliquée : il est aussi difficile d'en trouver les causes, que d'en arrêter les effets[3]. »
+« Viscum (gui , en gaulois dont le primitif est gwid, arbuste. C'est-à-dire l'arbuste par excellence. On sait que le gui-de-chêne était en vénération parmi les Celtes. De gui les Grecs ont fait  ἰξός / ixós, et les Latins, viscum [...]. Comme le suc de cette plante est extrêmement gluant, d'ixos les Grecs firent ιξία / ixia, de la glu, et de viscum les Latins firent viscus, viscatus ; les Français visqueux viscosité etc.Quant aux motifs qui avaient dirigé vers le gui-de-chêne le culte de nos ancêtres, on ne saurait les découvrir. La superstition ne peut être expliquée : il est aussi difficile d'en trouver les causes, que d'en arrêter les effets. »
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Caractéristiques principales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Gui (Viscum album) avec baies
@@ -582,13 +598,50 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
-En classification phylogénétique APG IV (2016)[4] il est assigné à la famille des Santalaceae, de même qu'en classification phylogénétique APG III (2009)[5].
-En classification classique de Cronquist (1981)[6], il fait partie de la famille des Viscaceae, un taxon inexistant dans la classification phylogénétique.
-Liste des espèces et sous-espèces
-Selon The Plant List            (30 novembre 2018)[7] :
+En classification phylogénétique APG IV (2016) il est assigné à la famille des Santalaceae, de même qu'en classification phylogénétique APG III (2009).
+En classification classique de Cronquist (1981), il fait partie de la famille des Viscaceae, un taxon inexistant dans la classification phylogénétique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Viscum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viscum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces et sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (30 novembre 2018) :
 Viscum album L.
 Viscum articulatum Burm. f.
 Viscum austriacum Wiesb.
@@ -664,7 +717,7 @@
 Viscum verrucosum Harv.
 Viscum yunnanense H.S. Kiu
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (30 novembre 2018)[8] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (30 novembre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Viscum abietis Fritsch
 Viscum acaciae Danser
 Viscum affine Pohl ex DC.
